--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OneDrive - Universidad de Oviedo\Docencia\2019-2020\Algoritmia\Estudiantes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\Github\algorithmicsGarciaDiazVicenteUO42478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:4000b_{A87FA765-4831-4C63-B08A-DADBB379C1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B8AA3558-1285-4212-8027-AB5FF06B8A73}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE8C83-ADD9-435A-848F-C323013A518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -29,11 +29,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={546631AC-B603-4F16-94FA-E61B5900ACC3}</author>
+    <author>Vicente García Díaz</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{546631AC-B603-4F16-94FA-E61B5900ACC3}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    last day of labs</t>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{D2FE9B25-C79E-4D70-AA94-F447E6592842}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Vicente García Díaz:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Continuous assessment of laboratory work </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Álvarez Álvarez, Martín</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -63,9 +103,6 @@
   </si>
   <si>
     <t>Test mark</t>
-  </si>
-  <si>
-    <t>Maximum possible marks in labs = 7</t>
   </si>
   <si>
     <t>Important:</t>
@@ -183,14 +220,23 @@
     </r>
   </si>
   <si>
-    <t>Please, don't change this file</t>
+    <t>García Díaz, Vicente</t>
+  </si>
+  <si>
+    <t>Maximum possible grade in labs = 7</t>
+  </si>
+  <si>
+    <t>Please, don't modify this file (just change your name)</t>
+  </si>
+  <si>
+    <t>Weights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,16 +272,65 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -280,11 +375,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -293,18 +416,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,22 +455,6 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
         <top/>
         <bottom style="thin">
           <color indexed="8"/>
@@ -344,6 +464,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="8"/>
@@ -351,16 +472,126 @@
         <right style="thin">
           <color indexed="8"/>
         </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right/>
         <top style="thin">
-          <color indexed="8"/>
+          <color theme="0"/>
         </top>
         <bottom style="thin">
-          <color indexed="8"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="8"/>
         </left>
@@ -376,100 +607,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -509,21 +647,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Vicente García Díaz" id="{6A9C7422-C3A0-4C0C-9BDC-2043E17C6B7B}" userId="033b2c33722570d9" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A3:J4" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A3:J4" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A5:J6" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A5:J6" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0">
-      <calculatedColumnFormula>(B4+C4+D4+E4+F4+G4+H4+I4)/8</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="9" dataCellStyle="Normal">
+      <calculatedColumnFormula>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -849,12 +993,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I5" dT="2022-01-17T14:06:33.95" personId="{6A9C7422-C3A0-4C0C-9BDC-2043E17C6B7B}" id="{546631AC-B603-4F16-94FA-E61B5900ACC3}">
+    <text>last day of labs</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -864,86 +1016,111 @@
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+    </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="16">
+        <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13">
+        <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <f>(B4+C4+D4+E4+F4+G4+H4+I4)/8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
@@ -956,78 +1133,96 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1145,22 +1340,26 @@
     <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I5:I12"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="F5:F12"/>
-    <mergeCell ref="G5:G12"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="E7:E14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspaces\Github\algorithmicsGarciaDiazVicenteUO42478\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CE8C83-ADD9-435A-848F-C323013A518B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,21 +25,27 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={546631AC-B603-4F16-94FA-E61B5900ACC3}</author>
     <author>Vicente García Díaz</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{546631AC-B603-4F16-94FA-E61B5900ACC3}">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     last day of labs</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{D2FE9B25-C79E-4D70-AA94-F447E6592842}">
+    <comment ref="J5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,9 +221,6 @@
     </r>
   </si>
   <si>
-    <t>García Díaz, Vicente</t>
-  </si>
-  <si>
     <t>Maximum possible grade in labs = 7</t>
   </si>
   <si>
@@ -230,13 +228,16 @@
   </si>
   <si>
     <t>Weights</t>
+  </si>
+  <si>
+    <t>Fernández-Catuxo Ortiz, Rita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -301,6 +302,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -407,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,6 +431,14 @@
     <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,14 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,127 +456,10 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="8"/>
-        </left>
-        <right style="thin">
-          <color indexed="8"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="8"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
         <color theme="1"/>
-        <family val="2"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -591,23 +482,139 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="8"/>
         </left>
         <right style="thin">
           <color indexed="8"/>
         </right>
-        <top style="thin">
-          <color indexed="8"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color indexed="8"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top style="thin">
+          <color indexed="8"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -647,26 +654,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Vicente García Díaz" id="{6A9C7422-C3A0-4C0C-9BDC-2043E17C6B7B}" userId="033b2c33722570d9" providerId="Windows Live"/>
-</personList>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A5:J6" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A5:J6" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14515" displayName="Tabla14515" ref="A5:J6" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A5:J6"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="3" name="Student" dataDxfId="9"/>
+    <tableColumn id="13" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
+    <tableColumn id="14" name="Lab 2 (Sorting)" dataDxfId="7"/>
+    <tableColumn id="15" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
+    <tableColumn id="16" name="Lab 4 (Greedy)" dataDxfId="5"/>
+    <tableColumn id="17" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
+    <tableColumn id="18" name="Lab 6 (Backtracking)" dataDxfId="3"/>
+    <tableColumn id="19" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
+    <tableColumn id="24" name="Test mark" dataDxfId="1"/>
+    <tableColumn id="21" name="Final mark" dataDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -750,23 +751,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -802,23 +786,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,20 +960,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I5" dT="2022-01-17T14:06:33.95" personId="{6A9C7422-C3A0-4C0C-9BDC-2043E17C6B7B}" id="{546631AC-B603-4F16-94FA-E61B5900ACC3}">
-    <text>last day of labs</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1027,7 +986,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1035,16 +994,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="11"/>
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7">
@@ -1068,7 +1027,7 @@
       <c r="H4" s="7">
         <v>0.15</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
         <v>0</v>
       </c>
@@ -1098,7 +1057,7 @@
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -1107,100 +1066,102 @@
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="13">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1220,7 +1181,7 @@
     </row>
     <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F7E39-492C-42D1-B344-CD1EA5C55CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="4785"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,6 +23,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,27 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={546631AC-B603-4F16-94FA-E61B5900ACC3}</author>
     <author>Vicente García Díaz</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    last day of labs</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="1" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -232,11 +224,17 @@
   <si>
     <t>Fernández-Catuxo Ortiz, Rita</t>
   </si>
+  <si>
+    <t>Good start</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -439,6 +437,7 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,7 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,19 +653,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14515" displayName="Tabla14515" ref="A5:J6" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A5:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla14515" displayName="Tabla14515" ref="A5:J6" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A5:J6" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="10">
-    <tableColumn id="3" name="Student" dataDxfId="9"/>
-    <tableColumn id="13" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
-    <tableColumn id="14" name="Lab 2 (Sorting)" dataDxfId="7"/>
-    <tableColumn id="15" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
-    <tableColumn id="16" name="Lab 4 (Greedy)" dataDxfId="5"/>
-    <tableColumn id="17" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
-    <tableColumn id="18" name="Lab 6 (Backtracking)" dataDxfId="3"/>
-    <tableColumn id="19" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
-    <tableColumn id="24" name="Test mark" dataDxfId="1"/>
-    <tableColumn id="21" name="Final mark" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Lab 0, 1.1, 1.2" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Lab 2 (Sorting)" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Lab 3 (D&amp;C)" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Lab 4 (Greedy)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Lab 5 (Dynamic Prog.)" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Lab 6 (Backtracking)" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0" dataCellStyle="Normal">
       <calculatedColumnFormula>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -751,6 +749,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -786,6 +801,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -961,51 +993,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>0.1</v>
       </c>
@@ -1029,10 +1061,10 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1064,12 +1096,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -1078,231 +1114,235 @@
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:H3"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293F7E39-492C-42D1-B344-CD1EA5C55CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D317E-3F81-414F-9A40-910BECFD33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>Very good, some more times would be helpful to understand complexity</t>
   </si>
 </sst>
 </file>
@@ -997,34 +1000,34 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="D7" sqref="D7:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.54296875" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.26953125" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.46484375" customWidth="1"/>
+    <col min="3" max="3" width="26.53125" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" customWidth="1"/>
+    <col min="7" max="7" width="30.265625" customWidth="1"/>
+    <col min="8" max="8" width="27.265625" customWidth="1"/>
+    <col min="9" max="9" width="23.796875" customWidth="1"/>
+    <col min="10" max="10" width="20.265625" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="12" max="12" width="17.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="15" t="s">
         <v>15</v>
@@ -1037,7 +1040,7 @@
       <c r="H3" s="15"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>0.1</v>
       </c>
@@ -1061,10 +1064,10 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1109,9 @@
       <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <v>9.5</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1114,10 +1119,10 @@
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="16" t="s">
         <v>17</v>
@@ -1125,14 +1130,16 @@
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -1142,7 +1149,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1152,7 +1159,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1162,7 +1169,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1173,7 +1180,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -1183,7 +1190,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -1193,7 +1200,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1203,146 +1210,146 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:H3"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5D317E-3F81-414F-9A40-910BECFD33B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7495755-5D0F-4787-AE47-2AD649C553AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>Very good, some more times would be helpful to understand complexity</t>
+  </si>
+  <si>
+    <t>The complexity would be O(countries + borders*colors). You can also consider the number of colors constant if they never change, so the complexity would be just O(countries + borders).
+The number of colors may change depending on the order of the input (like in the slide we see in class).</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1004,7 @@
   <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D14"/>
+      <selection activeCell="E7" sqref="E7:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1064,7 +1068,7 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>3.4249999999999998</v>
+        <v>4.7374999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1112,14 +1116,16 @@
       <c r="D6" s="9">
         <v>9.5</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>8.75</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>3.4249999999999998</v>
+        <v>4.7374999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1133,7 +1139,9 @@
       <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7495755-5D0F-4787-AE47-2AD649C553AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B785FDC-A43A-4B4E-8D58-3DB658774607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -236,6 +236,9 @@
   <si>
     <t>The complexity would be O(countries + borders*colors). You can also consider the number of colors constant if they never change, so the complexity would be just O(countries + borders).
 The number of colors may change depending on the order of the input (like in the slide we see in class).</t>
+  </si>
+  <si>
+    <t>Very good</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>4.7374999999999998</v>
+        <v>6.2374999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1119,13 +1122,15 @@
       <c r="E6" s="9">
         <v>8.75</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>10</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>4.7374999999999998</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1142,7 +1147,9 @@
       <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B785FDC-A43A-4B4E-8D58-3DB658774607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D134B-BA03-4DE6-AFFD-A6D5A6D2B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Very good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responses are OK but table is clearly wrong. Greedy algorithm cannot be better than a backtracking algorithm that tries all the possibilites. In addition, the balancing condition is there for pruning purposes. So, pruning cannot give more precission than without pruning. </t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1074,7 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>6.2374999999999998</v>
+        <v>7.4375</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1125,12 +1128,14 @@
       <c r="F6" s="9">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>6</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="12"/>
       <c r="J6" s="10">
         <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1150,7 +1155,9 @@
       <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\alg-3-Fernández-catuxoOrtízRita-UO284185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41D134B-BA03-4DE6-AFFD-A6D5A6D2B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9141E0-FA15-4623-B7D5-4A40A9D46569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Lab 0, 1.1, 1.2</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t xml:space="preserve">Responses are OK but table is clearly wrong. Greedy algorithm cannot be better than a backtracking algorithm that tries all the possibilites. In addition, the balancing condition is there for pruning purposes. So, pruning cannot give more precission than without pruning. </t>
+  </si>
+  <si>
+    <t>Very good although some missing details: the pruning is not implemented, the way to count nodes is not completely good (e.g., in each iteration the number of children is 3, not 2). And the nodes were not included in the tables</t>
+  </si>
+  <si>
+    <t>Close enough --&gt; -1 point</t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Lab 7 (Branch&amp;Bound)" dataDxfId="2"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Test mark" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Final mark" dataDxfId="0" dataCellStyle="Normal">
-      <calculatedColumnFormula>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1009,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G14"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1080,7 @@
       </c>
       <c r="J4" s="13">
         <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4</f>
-        <v>7.4375</v>
+        <v>8.7125000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1131,11 +1137,15 @@
       <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="J6" s="10">
-        <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))</f>
-        <v>6</v>
+        <f>IF(J4&lt;5,J4,IF(J4&lt;6,5,IF(J4&lt;7,5.5,IF(J4&lt;8,6,IF(J4&lt;9,6.5,IF(J4&lt;=10,7,100))))))-1</f>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1158,7 +1168,9 @@
       <c r="G7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
